--- a/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
+++ b/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CFD" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Prescription" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Test Instructions" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Summary" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -97,10 +98,16 @@
     <t xml:space="preserve">Drug instruction</t>
   </si>
   <si>
+    <t xml:space="preserve">Popular Drug Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Drug Frequency</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tab COMBIFLAM (500 mg) </t>
   </si>
   <si>
-    <t xml:space="preserve">Tab NAXDOM 250</t>
+    <t xml:space="preserve">NAXDOM</t>
   </si>
   <si>
     <t xml:space="preserve">Drug1001</t>
@@ -133,6 +140,12 @@
     <t xml:space="preserve">take with water</t>
   </si>
   <si>
+    <t xml:space="preserve">5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test</t>
   </si>
   <si>
@@ -149,6 +162,15 @@
   </si>
   <si>
     <t xml:space="preserve">ARTHROSCOPIC STABILISATION PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todays Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 3, 2023</t>
   </si>
 </sst>
 </file>
@@ -2416,10 +2438,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2435,7 +2457,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2475,43 +2499,55 @@
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3544,24 +3580,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4571,4 +4607,48 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
+++ b/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">NAXDOM</t>
   </si>
   <si>
-    <t xml:space="preserve">Drug1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug1001Compnay</t>
+    <t xml:space="preserve">Drug10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Compnay</t>
   </si>
   <si>
     <t xml:space="preserve">400</t>
@@ -2440,8 +2440,8 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4616,7 +4616,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
+++ b/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Prescription" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Test Instructions" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Summary" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Appointment" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -155,6 +156,15 @@
     <t xml:space="preserve">Procedures</t>
   </si>
   <si>
+    <t xml:space="preserve">Create Test Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create instruction Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create procedure name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Urine Acetone</t>
   </si>
   <si>
@@ -164,13 +174,31 @@
     <t xml:space="preserve">ARTHROSCOPIC STABILISATION PROCEDURE</t>
   </si>
   <si>
+    <t xml:space="preserve">Test1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat more fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure1001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Records Date</t>
   </si>
   <si>
     <t xml:space="preserve">Todays Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul 3, 2023</t>
+    <t xml:space="preserve">Jul 4, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7972007624</t>
   </si>
 </sst>
 </file>
@@ -362,7 +390,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.7"/>
@@ -2440,8 +2468,8 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3564,10 +3592,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3575,7 +3603,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3588,16 +3618,34 @@
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4616,8 +4664,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4628,19 +4676,61 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
+++ b/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">NAXDOM</t>
   </si>
   <si>
-    <t xml:space="preserve">Drug10001</t>
+    <t xml:space="preserve">New Drug 111</t>
   </si>
   <si>
     <t xml:space="preserve">Drug Compnay</t>
@@ -189,7 +189,7 @@
     <t xml:space="preserve">Todays Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul 4, 2023</t>
+    <t xml:space="preserve">Jul 7, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile No</t>
@@ -2468,8 +2468,8 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4664,8 +4664,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
+++ b/DemoProject/src/test/java/com/demo/testdata/web/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -174,13 +174,13 @@
     <t xml:space="preserve">ARTHROSCOPIC STABILISATION PROCEDURE</t>
   </si>
   <si>
-    <t xml:space="preserve">Test1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat more fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedure1001</t>
+    <t xml:space="preserve">Created test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure created</t>
   </si>
   <si>
     <t xml:space="preserve">Records Date</t>
@@ -189,7 +189,7 @@
     <t xml:space="preserve">Todays Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul 7, 2023</t>
+    <t xml:space="preserve">Aug 10, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile No</t>
@@ -380,13 +380,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
@@ -1409,13 +1409,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -2466,13 +2466,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
@@ -3592,19 +3592,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B2 E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -4664,11 +4664,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.34"/>
@@ -4709,12 +4709,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B2 B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
   </cols>
   <sheetData>
